--- a/Document/My Ais/T9/T9_Test_MyAIS_APP_3PO_EN.xlsx
+++ b/Document/My Ais/T9/T9_Test_MyAIS_APP_3PO_EN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1635" windowWidth="20115" windowHeight="6435" tabRatio="879" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="1635" windowWidth="20115" windowHeight="6435" tabRatio="879" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="1" r:id="rId1"/>
@@ -31247,47 +31247,6 @@
     <t>กรณี ดูใบแจ้งค่าใช้บริการ</t>
   </si>
   <si>
-    <t>1. Login My AIS 
-2. Click menu "Balance &amp; Usage Detail"
-3. Click "Your Balance History"
-4. Verify "Your Balance History"
-5. Verify 
-- Billing Cycle
-- Total
-- View Statement
-- รายการรอบบิลย้อนหลัง 1 เดือน (เช็คว่ามีครบ 1 รายการ)
-- Click to view details of statement
-- Your statement will be available for viewing 8 days after the end date of your billing cycle.
-- "Payment" button
-6. Capture Screen</t>
-  </si>
-  <si>
-    <t>1. Login My AIS 
-2. Click menu "Balance &amp; Usage Detail"
-3. Click "Your Balance History"
-4. Verify "Your Balance History"
-5. Verify 
-- Billing Cycle
-- Total
-- View Statement
-- รายการรอบบิลย้อนหลัง 3 เดือน (เช็คว่ามีครบ 3 รายการ)
-- Click to view details of statement
-- Your statement will be available for viewing 8 days after the end date of your billing cycle.
-- "Payment" button
-6. Capture Screen</t>
-  </si>
-  <si>
-    <t>1. Login My AIS 
-2. Click menu "Balance &amp; Usage Detail"
-3. Click "Your Balance History"
-4. Verify "Your Balance History"
-5. Click แว่นขยาย
-6. Verify "ใบแจ้งค่าใช้บริการ"
-- ใบแจ้งค่าใช้บริการ (STATEMENT)
-- Logo AIS
-7. Capture Screen</t>
-  </si>
-  <si>
     <t>ตรวจสอบหน้า "เช็คยอดค่าโทร"</t>
   </si>
   <si>
@@ -31566,6 +31525,53 @@
   </si>
   <si>
     <t>F3_YourBalanceHistory_2_2_Y_4_2</t>
+  </si>
+  <si>
+    <t>1. Login My AIS 
+2. Click menu "Balance &amp; Usage Detail"
+3. Click "Your Balance History"
+4. Enter your "ID Card"
+5. Click "OK"
+6. Verify "Your Balance History"
+7. Verify 
+- Billing Cycle
+- Total
+- View Statement
+- รายการรอบบิลย้อนหลัง 1 เดือน (เช็คว่ามีครบ 1 รายการ)
+- Click to view details of statement
+- Your statement will be available for viewing 8 days after the end date of your billing cycle.
+- "Payment" button
+8. Capture Screen</t>
+  </si>
+  <si>
+    <t>1. Login My AIS 
+2. Click menu "Balance &amp; Usage Detail"
+3. Click "Your Balance History"
+4. Verify "Your Balance History"
+5. Enter your "ID Card"
+6. Click "OK"
+7. Verify 
+- Billing Cycle
+- Total
+- View Statement
+- รายการรอบบิลย้อนหลัง 3 เดือน (เช็คว่ามีครบ 3 รายการ)
+- Click to view details of statement
+- Your statement will be available for viewing 8 days after the end date of your billing cycle.
+- "Payment" button
+8. Capture Screen</t>
+  </si>
+  <si>
+    <t>1. Login My AIS 
+2. Click menu "Balance &amp; Usage Detail"
+3. Click "Your Balance History"
+4. Verify "Your Balance History"
+5. Enter your "ID Card"
+6. Click "OK"
+7. Click แว่นขยาย
+8. Verify "ใบแจ้งค่าใช้บริการ"
+- ใบแจ้งค่าใช้บริการ (STATEMENT)
+- Logo AIS
+9. Capture Screen</t>
   </si>
 </sst>
 </file>
@@ -34506,73 +34512,78 @@
     <xf numFmtId="0" fontId="29" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="19" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="37" borderId="40" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="37" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="36" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -34655,6 +34666,22 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -34667,24 +34694,118 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -34698,29 +34819,11 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -34749,58 +34852,25 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -34821,6 +34891,15 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -34830,34 +34909,34 @@
     <xf numFmtId="0" fontId="21" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="53" fillId="22" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="42" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="22" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="43" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="44" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="40" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="23" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="21" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="40" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="21" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="22" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -34873,79 +34952,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="19" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="40" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="36" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -40933,25 +40939,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="518" t="s">
+      <c r="C5" s="571" t="s">
         <v>369</v>
       </c>
-      <c r="D5" s="519"/>
-      <c r="E5" s="520"/>
+      <c r="D5" s="572"/>
+      <c r="E5" s="573"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="510"/>
-      <c r="I5" s="510"/>
-      <c r="J5" s="510"/>
+      <c r="H5" s="569"/>
+      <c r="I5" s="569"/>
+      <c r="J5" s="569"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="540"/>
-      <c r="D6" s="541"/>
-      <c r="E6" s="542"/>
+      <c r="C6" s="545"/>
+      <c r="D6" s="546"/>
+      <c r="E6" s="547"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -40961,23 +40967,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="521"/>
-      <c r="D7" s="522"/>
-      <c r="E7" s="523"/>
+      <c r="C7" s="574"/>
+      <c r="D7" s="575"/>
+      <c r="E7" s="576"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="510"/>
-      <c r="I7" s="510"/>
-      <c r="J7" s="510"/>
+      <c r="H7" s="569"/>
+      <c r="I7" s="569"/>
+      <c r="J7" s="569"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="524" t="s">
+      <c r="C8" s="577" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="525"/>
-      <c r="E8" s="526"/>
+      <c r="D8" s="578"/>
+      <c r="E8" s="579"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -41000,58 +41006,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="511" t="s">
+      <c r="B11" s="563" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="512"/>
-      <c r="D11" s="513"/>
-      <c r="E11" s="513"/>
-      <c r="F11" s="514"/>
+      <c r="C11" s="564"/>
+      <c r="D11" s="570"/>
+      <c r="E11" s="570"/>
+      <c r="F11" s="565"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="515"/>
-      <c r="D12" s="516"/>
-      <c r="E12" s="516"/>
-      <c r="F12" s="517"/>
+      <c r="C12" s="556"/>
+      <c r="D12" s="558"/>
+      <c r="E12" s="558"/>
+      <c r="F12" s="559"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="515"/>
-      <c r="D13" s="516"/>
-      <c r="E13" s="516"/>
-      <c r="F13" s="517"/>
+      <c r="C13" s="556"/>
+      <c r="D13" s="558"/>
+      <c r="E13" s="558"/>
+      <c r="F13" s="559"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="515"/>
-      <c r="D14" s="516"/>
-      <c r="E14" s="516"/>
-      <c r="F14" s="517"/>
+      <c r="C14" s="556"/>
+      <c r="D14" s="558"/>
+      <c r="E14" s="558"/>
+      <c r="F14" s="559"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="515"/>
-      <c r="D15" s="516"/>
-      <c r="E15" s="516"/>
-      <c r="F15" s="517"/>
+      <c r="C15" s="556"/>
+      <c r="D15" s="558"/>
+      <c r="E15" s="558"/>
+      <c r="F15" s="559"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="551"/>
-      <c r="D16" s="552"/>
-      <c r="E16" s="552"/>
-      <c r="F16" s="553"/>
+      <c r="C16" s="560"/>
+      <c r="D16" s="561"/>
+      <c r="E16" s="561"/>
+      <c r="F16" s="562"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -41061,13 +41067,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="511" t="s">
+      <c r="B18" s="563" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="512"/>
-      <c r="D18" s="512"/>
-      <c r="E18" s="512"/>
-      <c r="F18" s="514"/>
+      <c r="C18" s="564"/>
+      <c r="D18" s="564"/>
+      <c r="E18" s="564"/>
+      <c r="F18" s="565"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -41079,10 +41085,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="546" t="s">
+      <c r="E19" s="551" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="554"/>
+      <c r="F19" s="566"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -41094,10 +41100,10 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="515" t="s">
+      <c r="E20" s="556" t="s">
         <v>248</v>
       </c>
-      <c r="F20" s="527"/>
+      <c r="F20" s="557"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
@@ -41107,10 +41113,10 @@
         <v>499</v>
       </c>
       <c r="D21" s="18"/>
-      <c r="E21" s="515" t="s">
+      <c r="E21" s="556" t="s">
         <v>500</v>
       </c>
-      <c r="F21" s="527"/>
+      <c r="F21" s="557"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16" t="s">
@@ -41120,10 +41126,10 @@
         <v>520</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="515" t="s">
+      <c r="E22" s="556" t="s">
         <v>519</v>
       </c>
-      <c r="F22" s="527"/>
+      <c r="F22" s="557"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
@@ -41133,52 +41139,52 @@
         <v>544</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="515" t="s">
+      <c r="E23" s="556" t="s">
         <v>550</v>
       </c>
-      <c r="F23" s="527"/>
+      <c r="F23" s="557"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="515"/>
-      <c r="F24" s="527"/>
+      <c r="E24" s="556"/>
+      <c r="F24" s="557"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="515"/>
-      <c r="F25" s="527"/>
+      <c r="E25" s="556"/>
+      <c r="F25" s="557"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="515"/>
-      <c r="F26" s="527"/>
+      <c r="E26" s="556"/>
+      <c r="F26" s="557"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="515"/>
-      <c r="F27" s="527"/>
+      <c r="E27" s="556"/>
+      <c r="F27" s="557"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="515"/>
-      <c r="F28" s="527"/>
+      <c r="E28" s="556"/>
+      <c r="F28" s="557"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="528"/>
-      <c r="F29" s="529"/>
+      <c r="E29" s="567"/>
+      <c r="F29" s="568"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -41188,67 +41194,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="543" t="s">
+      <c r="B31" s="548" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="544"/>
-      <c r="D31" s="544"/>
-      <c r="E31" s="545"/>
+      <c r="C31" s="549"/>
+      <c r="D31" s="549"/>
+      <c r="E31" s="550"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="546" t="s">
+      <c r="C32" s="551" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="547"/>
-      <c r="E32" s="547"/>
+      <c r="D32" s="552"/>
+      <c r="E32" s="552"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="532"/>
-      <c r="D33" s="533"/>
-      <c r="E33" s="533"/>
+      <c r="C33" s="537"/>
+      <c r="D33" s="538"/>
+      <c r="E33" s="538"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="548"/>
-      <c r="D34" s="549"/>
-      <c r="E34" s="550"/>
+      <c r="C34" s="553"/>
+      <c r="D34" s="554"/>
+      <c r="E34" s="555"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="530"/>
-      <c r="D35" s="531"/>
-      <c r="E35" s="531"/>
+      <c r="C35" s="535"/>
+      <c r="D35" s="536"/>
+      <c r="E35" s="536"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="532"/>
-      <c r="D36" s="533"/>
-      <c r="E36" s="533"/>
+      <c r="C36" s="537"/>
+      <c r="D36" s="538"/>
+      <c r="E36" s="538"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="534"/>
-      <c r="D37" s="535"/>
-      <c r="E37" s="536"/>
+      <c r="C37" s="539"/>
+      <c r="D37" s="540"/>
+      <c r="E37" s="541"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="537"/>
-      <c r="D38" s="538"/>
-      <c r="E38" s="539"/>
+      <c r="C38" s="542"/>
+      <c r="D38" s="543"/>
+      <c r="E38" s="544"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41274,6 +41280,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -41290,22 +41312,6 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41372,19 +41378,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="605" t="s">
+      <c r="A2" s="630" t="s">
         <v>1945</v>
       </c>
-      <c r="B2" s="606"/>
-      <c r="C2" s="606"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="606"/>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="606"/>
-      <c r="J2" s="606"/>
-      <c r="K2" s="607"/>
+      <c r="B2" s="631"/>
+      <c r="C2" s="631"/>
+      <c r="D2" s="631"/>
+      <c r="E2" s="631"/>
+      <c r="F2" s="631"/>
+      <c r="G2" s="631"/>
+      <c r="H2" s="631"/>
+      <c r="I2" s="631"/>
+      <c r="J2" s="631"/>
+      <c r="K2" s="632"/>
     </row>
     <row r="3" spans="1:12" s="336" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="467" t="s">
@@ -42612,19 +42618,19 @@
       <c r="K62" s="379"/>
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="605" t="s">
+      <c r="A63" s="630" t="s">
         <v>1953</v>
       </c>
-      <c r="B63" s="606"/>
-      <c r="C63" s="606"/>
-      <c r="D63" s="606"/>
-      <c r="E63" s="606"/>
-      <c r="F63" s="606"/>
-      <c r="G63" s="606"/>
-      <c r="H63" s="606"/>
-      <c r="I63" s="606"/>
-      <c r="J63" s="606"/>
-      <c r="K63" s="607"/>
+      <c r="B63" s="631"/>
+      <c r="C63" s="631"/>
+      <c r="D63" s="631"/>
+      <c r="E63" s="631"/>
+      <c r="F63" s="631"/>
+      <c r="G63" s="631"/>
+      <c r="H63" s="631"/>
+      <c r="I63" s="631"/>
+      <c r="J63" s="631"/>
+      <c r="K63" s="632"/>
     </row>
     <row r="64" spans="1:11" s="336" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="467" t="s">
@@ -46582,98 +46588,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="617" t="s">
+      <c r="A1" s="645" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="615" t="s">
+      <c r="B1" s="644" t="s">
         <v>751</v>
       </c>
-      <c r="C1" s="615" t="s">
+      <c r="C1" s="644" t="s">
         <v>752</v>
       </c>
-      <c r="D1" s="615" t="s">
+      <c r="D1" s="644" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="615" t="s">
+      <c r="E1" s="644" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="615" t="s">
+      <c r="F1" s="644" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="615" t="s">
+      <c r="G1" s="644" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="615" t="s">
+      <c r="H1" s="644" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="615" t="s">
+      <c r="I1" s="644" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="615" t="s">
+      <c r="J1" s="644" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="615" t="s">
+      <c r="K1" s="644" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="615" t="s">
+      <c r="L1" s="644" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="620" t="s">
+      <c r="M1" s="640" t="s">
         <v>753</v>
       </c>
-      <c r="N1" s="608" t="s">
+      <c r="N1" s="642" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="616"/>
-      <c r="B2" s="616"/>
-      <c r="C2" s="616"/>
-      <c r="D2" s="616"/>
-      <c r="E2" s="616"/>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="616"/>
-      <c r="J2" s="616"/>
-      <c r="K2" s="616"/>
-      <c r="L2" s="616"/>
-      <c r="M2" s="616"/>
-      <c r="N2" s="609"/>
+      <c r="A2" s="641"/>
+      <c r="B2" s="641"/>
+      <c r="C2" s="641"/>
+      <c r="D2" s="641"/>
+      <c r="E2" s="641"/>
+      <c r="F2" s="641"/>
+      <c r="G2" s="641"/>
+      <c r="H2" s="641"/>
+      <c r="I2" s="641"/>
+      <c r="J2" s="641"/>
+      <c r="K2" s="641"/>
+      <c r="L2" s="641"/>
+      <c r="M2" s="641"/>
+      <c r="N2" s="635"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="610" t="s">
+      <c r="A3" s="637" t="s">
         <v>755</v>
       </c>
-      <c r="B3" s="611"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="611"/>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="611"/>
-      <c r="I3" s="611"/>
-      <c r="J3" s="611"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="B3" s="638"/>
+      <c r="C3" s="638"/>
+      <c r="D3" s="638"/>
+      <c r="E3" s="638"/>
+      <c r="F3" s="638"/>
+      <c r="G3" s="638"/>
+      <c r="H3" s="638"/>
+      <c r="I3" s="638"/>
+      <c r="J3" s="638"/>
+      <c r="K3" s="638"/>
+      <c r="L3" s="639"/>
       <c r="M3" s="199"/>
       <c r="N3" s="200"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="613" t="s">
+      <c r="A4" s="643" t="s">
         <v>756</v>
       </c>
-      <c r="B4" s="611"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="611"/>
-      <c r="E4" s="611"/>
-      <c r="F4" s="611"/>
-      <c r="G4" s="611"/>
-      <c r="H4" s="611"/>
-      <c r="I4" s="611"/>
-      <c r="J4" s="611"/>
-      <c r="K4" s="611"/>
-      <c r="L4" s="612"/>
+      <c r="B4" s="638"/>
+      <c r="C4" s="638"/>
+      <c r="D4" s="638"/>
+      <c r="E4" s="638"/>
+      <c r="F4" s="638"/>
+      <c r="G4" s="638"/>
+      <c r="H4" s="638"/>
+      <c r="I4" s="638"/>
+      <c r="J4" s="638"/>
+      <c r="K4" s="638"/>
+      <c r="L4" s="639"/>
       <c r="M4" s="201"/>
       <c r="N4" s="202"/>
     </row>
@@ -46845,20 +46851,20 @@
       <c r="N10" s="232"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="610" t="s">
+      <c r="A11" s="637" t="s">
         <v>778</v>
       </c>
-      <c r="B11" s="614"/>
-      <c r="C11" s="614"/>
-      <c r="D11" s="611"/>
-      <c r="E11" s="614"/>
-      <c r="F11" s="611"/>
-      <c r="G11" s="611"/>
-      <c r="H11" s="611"/>
-      <c r="I11" s="611"/>
-      <c r="J11" s="611"/>
-      <c r="K11" s="611"/>
-      <c r="L11" s="612"/>
+      <c r="B11" s="634"/>
+      <c r="C11" s="634"/>
+      <c r="D11" s="638"/>
+      <c r="E11" s="634"/>
+      <c r="F11" s="638"/>
+      <c r="G11" s="638"/>
+      <c r="H11" s="638"/>
+      <c r="I11" s="638"/>
+      <c r="J11" s="638"/>
+      <c r="K11" s="638"/>
+      <c r="L11" s="639"/>
       <c r="M11" s="199"/>
       <c r="N11" s="199"/>
     </row>
@@ -46919,20 +46925,20 @@
       <c r="N13" s="244"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="610" t="s">
+      <c r="A14" s="637" t="s">
         <v>786</v>
       </c>
-      <c r="B14" s="611"/>
-      <c r="C14" s="611"/>
-      <c r="D14" s="611"/>
-      <c r="E14" s="611"/>
-      <c r="F14" s="611"/>
-      <c r="G14" s="611"/>
-      <c r="H14" s="611"/>
-      <c r="I14" s="611"/>
-      <c r="J14" s="611"/>
-      <c r="K14" s="611"/>
-      <c r="L14" s="612"/>
+      <c r="B14" s="638"/>
+      <c r="C14" s="638"/>
+      <c r="D14" s="638"/>
+      <c r="E14" s="638"/>
+      <c r="F14" s="638"/>
+      <c r="G14" s="638"/>
+      <c r="H14" s="638"/>
+      <c r="I14" s="638"/>
+      <c r="J14" s="638"/>
+      <c r="K14" s="638"/>
+      <c r="L14" s="639"/>
       <c r="M14" s="243"/>
       <c r="N14" s="244"/>
     </row>
@@ -46993,20 +46999,20 @@
       <c r="N16" s="252"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="618" t="s">
+      <c r="A17" s="633" t="s">
         <v>792</v>
       </c>
-      <c r="B17" s="614"/>
-      <c r="C17" s="614"/>
-      <c r="D17" s="614"/>
-      <c r="E17" s="614"/>
-      <c r="F17" s="614"/>
-      <c r="G17" s="614"/>
-      <c r="H17" s="614"/>
-      <c r="I17" s="614"/>
-      <c r="J17" s="614"/>
-      <c r="K17" s="614"/>
-      <c r="L17" s="609"/>
+      <c r="B17" s="634"/>
+      <c r="C17" s="634"/>
+      <c r="D17" s="634"/>
+      <c r="E17" s="634"/>
+      <c r="F17" s="634"/>
+      <c r="G17" s="634"/>
+      <c r="H17" s="634"/>
+      <c r="I17" s="634"/>
+      <c r="J17" s="634"/>
+      <c r="K17" s="634"/>
+      <c r="L17" s="635"/>
       <c r="M17" s="253"/>
       <c r="N17" s="254"/>
     </row>
@@ -47323,20 +47329,20 @@
       <c r="N30" s="291"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="619" t="s">
+      <c r="A31" s="636" t="s">
         <v>830</v>
       </c>
-      <c r="B31" s="614"/>
-      <c r="C31" s="614"/>
-      <c r="D31" s="614"/>
-      <c r="E31" s="614"/>
-      <c r="F31" s="614"/>
-      <c r="G31" s="614"/>
-      <c r="H31" s="614"/>
-      <c r="I31" s="614"/>
-      <c r="J31" s="614"/>
-      <c r="K31" s="614"/>
-      <c r="L31" s="609"/>
+      <c r="B31" s="634"/>
+      <c r="C31" s="634"/>
+      <c r="D31" s="634"/>
+      <c r="E31" s="634"/>
+      <c r="F31" s="634"/>
+      <c r="G31" s="634"/>
+      <c r="H31" s="634"/>
+      <c r="I31" s="634"/>
+      <c r="J31" s="634"/>
+      <c r="K31" s="634"/>
+      <c r="L31" s="635"/>
       <c r="M31" s="292"/>
       <c r="N31" s="292"/>
     </row>
@@ -61800,6 +61806,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="A14:L14"/>
@@ -61816,10 +61826,6 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -61830,8 +61836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView topLeftCell="B86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -62407,20 +62413,20 @@
       <c r="L24" s="335"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="622" t="s">
+      <c r="A25" s="647" t="s">
         <v>1067</v>
       </c>
-      <c r="B25" s="623"/>
-      <c r="C25" s="623"/>
-      <c r="D25" s="623"/>
-      <c r="E25" s="623"/>
-      <c r="F25" s="623"/>
-      <c r="G25" s="623"/>
-      <c r="H25" s="623"/>
-      <c r="I25" s="623"/>
-      <c r="J25" s="623"/>
-      <c r="K25" s="623"/>
-      <c r="L25" s="624"/>
+      <c r="B25" s="648"/>
+      <c r="C25" s="648"/>
+      <c r="D25" s="648"/>
+      <c r="E25" s="648"/>
+      <c r="F25" s="648"/>
+      <c r="G25" s="648"/>
+      <c r="H25" s="648"/>
+      <c r="I25" s="648"/>
+      <c r="J25" s="648"/>
+      <c r="K25" s="648"/>
+      <c r="L25" s="649"/>
     </row>
     <row r="26" spans="1:12" s="326" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="77" t="s">
@@ -62975,20 +62981,20 @@
       <c r="L49" s="66"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="625" t="s">
+      <c r="A50" s="650" t="s">
         <v>1149</v>
       </c>
-      <c r="B50" s="625"/>
-      <c r="C50" s="625"/>
-      <c r="D50" s="625"/>
-      <c r="E50" s="625"/>
-      <c r="F50" s="625"/>
-      <c r="G50" s="625"/>
-      <c r="H50" s="625"/>
-      <c r="I50" s="625"/>
-      <c r="J50" s="625"/>
-      <c r="K50" s="625"/>
-      <c r="L50" s="625"/>
+      <c r="B50" s="650"/>
+      <c r="C50" s="650"/>
+      <c r="D50" s="650"/>
+      <c r="E50" s="650"/>
+      <c r="F50" s="650"/>
+      <c r="G50" s="650"/>
+      <c r="H50" s="650"/>
+      <c r="I50" s="650"/>
+      <c r="J50" s="650"/>
+      <c r="K50" s="650"/>
+      <c r="L50" s="650"/>
     </row>
     <row r="51" spans="1:12" s="432" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="428" t="s">
@@ -63041,20 +63047,20 @@
       <c r="L52" s="431"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="625" t="s">
+      <c r="A53" s="650" t="s">
         <v>1153</v>
       </c>
-      <c r="B53" s="625"/>
-      <c r="C53" s="625"/>
-      <c r="D53" s="625"/>
-      <c r="E53" s="625"/>
-      <c r="F53" s="625"/>
-      <c r="G53" s="625"/>
-      <c r="H53" s="625"/>
-      <c r="I53" s="625"/>
-      <c r="J53" s="625"/>
-      <c r="K53" s="625"/>
-      <c r="L53" s="625"/>
+      <c r="B53" s="650"/>
+      <c r="C53" s="650"/>
+      <c r="D53" s="650"/>
+      <c r="E53" s="650"/>
+      <c r="F53" s="650"/>
+      <c r="G53" s="650"/>
+      <c r="H53" s="650"/>
+      <c r="I53" s="650"/>
+      <c r="J53" s="650"/>
+      <c r="K53" s="650"/>
+      <c r="L53" s="650"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="77" t="s">
@@ -63105,20 +63111,20 @@
       <c r="L55" s="66"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="625" t="s">
+      <c r="A56" s="650" t="s">
         <v>1161</v>
       </c>
-      <c r="B56" s="625"/>
-      <c r="C56" s="625"/>
-      <c r="D56" s="625"/>
-      <c r="E56" s="625"/>
-      <c r="F56" s="625"/>
-      <c r="G56" s="625"/>
-      <c r="H56" s="625"/>
-      <c r="I56" s="625"/>
-      <c r="J56" s="625"/>
-      <c r="K56" s="625"/>
-      <c r="L56" s="625"/>
+      <c r="B56" s="650"/>
+      <c r="C56" s="650"/>
+      <c r="D56" s="650"/>
+      <c r="E56" s="650"/>
+      <c r="F56" s="650"/>
+      <c r="G56" s="650"/>
+      <c r="H56" s="650"/>
+      <c r="I56" s="650"/>
+      <c r="J56" s="650"/>
+      <c r="K56" s="650"/>
+      <c r="L56" s="650"/>
     </row>
     <row r="57" spans="1:12" s="385" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="447" t="s">
@@ -63169,20 +63175,20 @@
       <c r="L58" s="66"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="622" t="s">
+      <c r="A59" s="647" t="s">
         <v>1169</v>
       </c>
-      <c r="B59" s="623"/>
-      <c r="C59" s="623"/>
-      <c r="D59" s="623"/>
-      <c r="E59" s="623"/>
-      <c r="F59" s="623"/>
-      <c r="G59" s="623"/>
-      <c r="H59" s="623"/>
-      <c r="I59" s="623"/>
-      <c r="J59" s="623"/>
-      <c r="K59" s="623"/>
-      <c r="L59" s="624"/>
+      <c r="B59" s="648"/>
+      <c r="C59" s="648"/>
+      <c r="D59" s="648"/>
+      <c r="E59" s="648"/>
+      <c r="F59" s="648"/>
+      <c r="G59" s="648"/>
+      <c r="H59" s="648"/>
+      <c r="I59" s="648"/>
+      <c r="J59" s="648"/>
+      <c r="K59" s="648"/>
+      <c r="L59" s="649"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="77" t="s">
@@ -63329,20 +63335,20 @@
       <c r="L65" s="66"/>
     </row>
     <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="625" t="s">
+      <c r="A66" s="650" t="s">
         <v>1192</v>
       </c>
-      <c r="B66" s="625"/>
-      <c r="C66" s="625"/>
-      <c r="D66" s="625"/>
-      <c r="E66" s="625"/>
-      <c r="F66" s="625"/>
-      <c r="G66" s="625"/>
-      <c r="H66" s="625"/>
-      <c r="I66" s="625"/>
-      <c r="J66" s="625"/>
-      <c r="K66" s="625"/>
-      <c r="L66" s="625"/>
+      <c r="B66" s="650"/>
+      <c r="C66" s="650"/>
+      <c r="D66" s="650"/>
+      <c r="E66" s="650"/>
+      <c r="F66" s="650"/>
+      <c r="G66" s="650"/>
+      <c r="H66" s="650"/>
+      <c r="I66" s="650"/>
+      <c r="J66" s="650"/>
+      <c r="K66" s="650"/>
+      <c r="L66" s="650"/>
     </row>
     <row r="67" spans="1:12" s="385" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="447" t="s">
@@ -63467,20 +63473,20 @@
       <c r="L71" s="66"/>
     </row>
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="625" t="s">
+      <c r="A72" s="650" t="s">
         <v>1208</v>
       </c>
-      <c r="B72" s="625"/>
-      <c r="C72" s="625"/>
-      <c r="D72" s="625"/>
-      <c r="E72" s="625"/>
-      <c r="F72" s="625"/>
-      <c r="G72" s="625"/>
-      <c r="H72" s="625"/>
-      <c r="I72" s="625"/>
-      <c r="J72" s="625"/>
-      <c r="K72" s="625"/>
-      <c r="L72" s="625"/>
+      <c r="B72" s="650"/>
+      <c r="C72" s="650"/>
+      <c r="D72" s="650"/>
+      <c r="E72" s="650"/>
+      <c r="F72" s="650"/>
+      <c r="G72" s="650"/>
+      <c r="H72" s="650"/>
+      <c r="I72" s="650"/>
+      <c r="J72" s="650"/>
+      <c r="K72" s="650"/>
+      <c r="L72" s="650"/>
     </row>
     <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="77" t="s">
@@ -63555,20 +63561,20 @@
       <c r="L75" s="66"/>
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="625" t="s">
+      <c r="A76" s="650" t="s">
         <v>1220</v>
       </c>
-      <c r="B76" s="625"/>
-      <c r="C76" s="625"/>
-      <c r="D76" s="625"/>
-      <c r="E76" s="625"/>
-      <c r="F76" s="625"/>
-      <c r="G76" s="625"/>
-      <c r="H76" s="625"/>
-      <c r="I76" s="625"/>
-      <c r="J76" s="625"/>
-      <c r="K76" s="625"/>
-      <c r="L76" s="625"/>
+      <c r="B76" s="650"/>
+      <c r="C76" s="650"/>
+      <c r="D76" s="650"/>
+      <c r="E76" s="650"/>
+      <c r="F76" s="650"/>
+      <c r="G76" s="650"/>
+      <c r="H76" s="650"/>
+      <c r="I76" s="650"/>
+      <c r="J76" s="650"/>
+      <c r="K76" s="650"/>
+      <c r="L76" s="650"/>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="77" t="s">
@@ -63619,20 +63625,20 @@
       <c r="L78" s="66"/>
     </row>
     <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="625" t="s">
+      <c r="A79" s="650" t="s">
         <v>1228</v>
       </c>
-      <c r="B79" s="625"/>
-      <c r="C79" s="625"/>
-      <c r="D79" s="625"/>
-      <c r="E79" s="625"/>
-      <c r="F79" s="625"/>
-      <c r="G79" s="625"/>
-      <c r="H79" s="625"/>
-      <c r="I79" s="625"/>
-      <c r="J79" s="625"/>
-      <c r="K79" s="625"/>
-      <c r="L79" s="625"/>
+      <c r="B79" s="650"/>
+      <c r="C79" s="650"/>
+      <c r="D79" s="650"/>
+      <c r="E79" s="650"/>
+      <c r="F79" s="650"/>
+      <c r="G79" s="650"/>
+      <c r="H79" s="650"/>
+      <c r="I79" s="650"/>
+      <c r="J79" s="650"/>
+      <c r="K79" s="650"/>
+      <c r="L79" s="650"/>
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="77" t="s">
@@ -63683,20 +63689,20 @@
       <c r="L81" s="66"/>
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="625" t="s">
+      <c r="A82" s="650" t="s">
         <v>1236</v>
       </c>
-      <c r="B82" s="625"/>
-      <c r="C82" s="625"/>
-      <c r="D82" s="625"/>
-      <c r="E82" s="625"/>
-      <c r="F82" s="625"/>
-      <c r="G82" s="625"/>
-      <c r="H82" s="625"/>
-      <c r="I82" s="625"/>
-      <c r="J82" s="625"/>
-      <c r="K82" s="625"/>
-      <c r="L82" s="625"/>
+      <c r="B82" s="650"/>
+      <c r="C82" s="650"/>
+      <c r="D82" s="650"/>
+      <c r="E82" s="650"/>
+      <c r="F82" s="650"/>
+      <c r="G82" s="650"/>
+      <c r="H82" s="650"/>
+      <c r="I82" s="650"/>
+      <c r="J82" s="650"/>
+      <c r="K82" s="650"/>
+      <c r="L82" s="650"/>
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="77" t="s">
@@ -63723,28 +63729,28 @@
       <c r="L83" s="66"/>
     </row>
     <row r="84" spans="1:12" s="466" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="642" t="s">
+      <c r="A84" s="526" t="s">
         <v>1240</v>
       </c>
       <c r="B84" s="506" t="s">
         <v>1241</v>
       </c>
-      <c r="C84" s="643" t="s">
+      <c r="C84" s="527" t="s">
         <v>996</v>
       </c>
       <c r="D84" s="506" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="E84" s="506" t="s">
-        <v>2103</v>
-      </c>
-      <c r="F84" s="644"/>
-      <c r="G84" s="644"/>
-      <c r="H84" s="644"/>
-      <c r="I84" s="644"/>
-      <c r="J84" s="644"/>
-      <c r="K84" s="644"/>
-      <c r="L84" s="644"/>
+        <v>2100</v>
+      </c>
+      <c r="F84" s="528"/>
+      <c r="G84" s="528"/>
+      <c r="H84" s="528"/>
+      <c r="I84" s="528"/>
+      <c r="J84" s="528"/>
+      <c r="K84" s="528"/>
+      <c r="L84" s="528"/>
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="77" t="s">
@@ -63819,20 +63825,20 @@
       <c r="L87" s="66"/>
     </row>
     <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="625" t="s">
+      <c r="A88" s="650" t="s">
         <v>1253</v>
       </c>
-      <c r="B88" s="625"/>
-      <c r="C88" s="625"/>
-      <c r="D88" s="625"/>
-      <c r="E88" s="625"/>
-      <c r="F88" s="625"/>
-      <c r="G88" s="625"/>
-      <c r="H88" s="625"/>
-      <c r="I88" s="625"/>
-      <c r="J88" s="625"/>
-      <c r="K88" s="625"/>
-      <c r="L88" s="625"/>
+      <c r="B88" s="650"/>
+      <c r="C88" s="650"/>
+      <c r="D88" s="650"/>
+      <c r="E88" s="650"/>
+      <c r="F88" s="650"/>
+      <c r="G88" s="650"/>
+      <c r="H88" s="650"/>
+      <c r="I88" s="650"/>
+      <c r="J88" s="650"/>
+      <c r="K88" s="650"/>
+      <c r="L88" s="650"/>
     </row>
     <row r="89" spans="1:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="77" t="s">
@@ -63883,44 +63889,44 @@
       <c r="L90" s="66"/>
     </row>
     <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="625" t="s">
+      <c r="A91" s="650" t="s">
         <v>1149</v>
       </c>
-      <c r="B91" s="625"/>
-      <c r="C91" s="625"/>
-      <c r="D91" s="625"/>
-      <c r="E91" s="625"/>
-      <c r="F91" s="625"/>
-      <c r="G91" s="625"/>
-      <c r="H91" s="625"/>
-      <c r="I91" s="625"/>
-      <c r="J91" s="625"/>
-      <c r="K91" s="625"/>
-      <c r="L91" s="625"/>
+      <c r="B91" s="650"/>
+      <c r="C91" s="650"/>
+      <c r="D91" s="650"/>
+      <c r="E91" s="650"/>
+      <c r="F91" s="650"/>
+      <c r="G91" s="650"/>
+      <c r="H91" s="650"/>
+      <c r="I91" s="650"/>
+      <c r="J91" s="650"/>
+      <c r="K91" s="650"/>
+      <c r="L91" s="650"/>
     </row>
     <row r="92" spans="1:12" s="466" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="642" t="s">
-        <v>2124</v>
+      <c r="A92" s="526" t="s">
+        <v>2121</v>
       </c>
       <c r="B92" s="506" t="s">
-        <v>2106</v>
-      </c>
-      <c r="C92" s="643" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C92" s="527" t="s">
         <v>996</v>
       </c>
       <c r="D92" s="506" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="E92" s="506" t="s">
-        <v>2107</v>
-      </c>
-      <c r="F92" s="644"/>
-      <c r="G92" s="644"/>
-      <c r="H92" s="644"/>
-      <c r="I92" s="644"/>
-      <c r="J92" s="644"/>
-      <c r="K92" s="644"/>
-      <c r="L92" s="644"/>
+        <v>2104</v>
+      </c>
+      <c r="F92" s="528"/>
+      <c r="G92" s="528"/>
+      <c r="H92" s="528"/>
+      <c r="I92" s="528"/>
+      <c r="J92" s="528"/>
+      <c r="K92" s="528"/>
+      <c r="L92" s="528"/>
     </row>
     <row r="93" spans="1:12" s="385" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="414"/>
@@ -64057,20 +64063,20 @@
       <c r="L98" s="427"/>
     </row>
     <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="621" t="s">
+      <c r="A99" s="646" t="s">
         <v>1259</v>
       </c>
-      <c r="B99" s="621"/>
-      <c r="C99" s="621"/>
-      <c r="D99" s="621"/>
-      <c r="E99" s="621"/>
-      <c r="F99" s="621"/>
-      <c r="G99" s="621"/>
-      <c r="H99" s="621"/>
-      <c r="I99" s="621"/>
-      <c r="J99" s="621"/>
-      <c r="K99" s="621"/>
-      <c r="L99" s="621"/>
+      <c r="B99" s="646"/>
+      <c r="C99" s="646"/>
+      <c r="D99" s="646"/>
+      <c r="E99" s="646"/>
+      <c r="F99" s="646"/>
+      <c r="G99" s="646"/>
+      <c r="H99" s="646"/>
+      <c r="I99" s="646"/>
+      <c r="J99" s="646"/>
+      <c r="K99" s="646"/>
+      <c r="L99" s="646"/>
     </row>
     <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="340" t="s">
@@ -64356,10 +64362,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="555" t="s">
+      <c r="A1" s="616" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="555"/>
+      <c r="B1" s="616"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -64394,250 +64400,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="556" t="s">
+      <c r="A2" s="617" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="556" t="s">
+      <c r="B2" s="617" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="556" t="s">
+      <c r="C2" s="617" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="559" t="s">
+      <c r="D2" s="620" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="559"/>
-      <c r="F2" s="559"/>
-      <c r="G2" s="568" t="s">
+      <c r="E2" s="620"/>
+      <c r="F2" s="620"/>
+      <c r="G2" s="586" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="569"/>
-      <c r="I2" s="569"/>
-      <c r="J2" s="570"/>
-      <c r="K2" s="586" t="s">
+      <c r="H2" s="587"/>
+      <c r="I2" s="587"/>
+      <c r="J2" s="592"/>
+      <c r="K2" s="580" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="586"/>
-      <c r="M2" s="568" t="s">
+      <c r="L2" s="580"/>
+      <c r="M2" s="586" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="569"/>
-      <c r="O2" s="570"/>
-      <c r="P2" s="568" t="s">
+      <c r="N2" s="587"/>
+      <c r="O2" s="592"/>
+      <c r="P2" s="586" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="570"/>
-      <c r="R2" s="568" t="s">
+      <c r="Q2" s="592"/>
+      <c r="R2" s="586" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="569"/>
-      <c r="T2" s="568" t="s">
+      <c r="S2" s="587"/>
+      <c r="T2" s="586" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="569"/>
-      <c r="V2" s="569"/>
-      <c r="W2" s="569"/>
-      <c r="X2" s="570"/>
-      <c r="Y2" s="568" t="s">
+      <c r="U2" s="587"/>
+      <c r="V2" s="587"/>
+      <c r="W2" s="587"/>
+      <c r="X2" s="592"/>
+      <c r="Y2" s="586" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="569"/>
-      <c r="AA2" s="569"/>
-      <c r="AB2" s="570"/>
-      <c r="AC2" s="562" t="s">
+      <c r="Z2" s="587"/>
+      <c r="AA2" s="587"/>
+      <c r="AB2" s="592"/>
+      <c r="AC2" s="601" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="563"/>
-      <c r="AE2" s="563"/>
-      <c r="AF2" s="578"/>
-      <c r="AG2" s="562" t="s">
+      <c r="AD2" s="602"/>
+      <c r="AE2" s="602"/>
+      <c r="AF2" s="611"/>
+      <c r="AG2" s="601" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="563"/>
-      <c r="AI2" s="563"/>
+      <c r="AH2" s="602"/>
+      <c r="AI2" s="602"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="557"/>
-      <c r="B3" s="557"/>
-      <c r="C3" s="557"/>
-      <c r="D3" s="559"/>
-      <c r="E3" s="559"/>
-      <c r="F3" s="559"/>
-      <c r="G3" s="564"/>
-      <c r="H3" s="565"/>
-      <c r="I3" s="565"/>
-      <c r="J3" s="571"/>
-      <c r="K3" s="586" t="s">
+      <c r="A3" s="618"/>
+      <c r="B3" s="618"/>
+      <c r="C3" s="618"/>
+      <c r="D3" s="620"/>
+      <c r="E3" s="620"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="588"/>
+      <c r="H3" s="589"/>
+      <c r="I3" s="589"/>
+      <c r="J3" s="593"/>
+      <c r="K3" s="580" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="586"/>
-      <c r="M3" s="564"/>
-      <c r="N3" s="565"/>
-      <c r="O3" s="571"/>
-      <c r="P3" s="564"/>
-      <c r="Q3" s="571"/>
-      <c r="R3" s="564"/>
-      <c r="S3" s="565"/>
-      <c r="T3" s="564"/>
-      <c r="U3" s="565"/>
-      <c r="V3" s="565"/>
-      <c r="W3" s="565"/>
-      <c r="X3" s="571"/>
-      <c r="Y3" s="564"/>
-      <c r="Z3" s="565"/>
-      <c r="AA3" s="565"/>
-      <c r="AB3" s="571"/>
-      <c r="AC3" s="564"/>
-      <c r="AD3" s="565"/>
-      <c r="AE3" s="565"/>
-      <c r="AF3" s="571"/>
-      <c r="AG3" s="564"/>
-      <c r="AH3" s="565"/>
-      <c r="AI3" s="565"/>
+      <c r="L3" s="580"/>
+      <c r="M3" s="588"/>
+      <c r="N3" s="589"/>
+      <c r="O3" s="593"/>
+      <c r="P3" s="588"/>
+      <c r="Q3" s="593"/>
+      <c r="R3" s="588"/>
+      <c r="S3" s="589"/>
+      <c r="T3" s="588"/>
+      <c r="U3" s="589"/>
+      <c r="V3" s="589"/>
+      <c r="W3" s="589"/>
+      <c r="X3" s="593"/>
+      <c r="Y3" s="588"/>
+      <c r="Z3" s="589"/>
+      <c r="AA3" s="589"/>
+      <c r="AB3" s="593"/>
+      <c r="AC3" s="588"/>
+      <c r="AD3" s="589"/>
+      <c r="AE3" s="589"/>
+      <c r="AF3" s="593"/>
+      <c r="AG3" s="588"/>
+      <c r="AH3" s="589"/>
+      <c r="AI3" s="589"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="557"/>
-      <c r="B4" s="557"/>
-      <c r="C4" s="557"/>
-      <c r="D4" s="560" t="s">
+      <c r="A4" s="618"/>
+      <c r="B4" s="618"/>
+      <c r="C4" s="618"/>
+      <c r="D4" s="599" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="560" t="s">
+      <c r="E4" s="599" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="560" t="s">
+      <c r="F4" s="599" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="584" t="s">
+      <c r="G4" s="597" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="584" t="s">
+      <c r="H4" s="597" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="584" t="s">
+      <c r="I4" s="597" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="584" t="s">
+      <c r="J4" s="597" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="587" t="s">
+      <c r="K4" s="581" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="587" t="s">
+      <c r="L4" s="581" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="589" t="s">
+      <c r="M4" s="583" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="589" t="s">
+      <c r="N4" s="583" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="593" t="s">
+      <c r="O4" s="594" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="594" t="s">
+      <c r="P4" s="595" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="594" t="s">
+      <c r="Q4" s="595" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="591" t="s">
+      <c r="R4" s="590" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="591" t="s">
+      <c r="S4" s="590" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="566" t="s">
+      <c r="T4" s="603" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="582" t="s">
+      <c r="U4" s="614" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="583"/>
-      <c r="W4" s="581" t="s">
+      <c r="V4" s="615"/>
+      <c r="W4" s="585" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="581" t="s">
+      <c r="X4" s="585" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="572" t="s">
+      <c r="Y4" s="605" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="572" t="s">
+      <c r="Z4" s="605" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="576" t="s">
+      <c r="AA4" s="609" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="577"/>
-      <c r="AC4" s="574" t="s">
+      <c r="AB4" s="610"/>
+      <c r="AC4" s="607" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="574" t="s">
+      <c r="AD4" s="607" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="579" t="s">
+      <c r="AE4" s="612" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="580"/>
-      <c r="AG4" s="560" t="s">
+      <c r="AF4" s="613"/>
+      <c r="AG4" s="599" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="560" t="s">
+      <c r="AH4" s="599" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="560" t="s">
+      <c r="AI4" s="599" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="558"/>
-      <c r="B5" s="558"/>
-      <c r="C5" s="558"/>
-      <c r="D5" s="561"/>
-      <c r="E5" s="561"/>
-      <c r="F5" s="561"/>
-      <c r="G5" s="585"/>
-      <c r="H5" s="585"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="585"/>
-      <c r="K5" s="588"/>
-      <c r="L5" s="588"/>
-      <c r="M5" s="590"/>
-      <c r="N5" s="590"/>
-      <c r="O5" s="590"/>
-      <c r="P5" s="595"/>
-      <c r="Q5" s="595"/>
-      <c r="R5" s="592"/>
-      <c r="S5" s="592"/>
-      <c r="T5" s="567"/>
+      <c r="A5" s="619"/>
+      <c r="B5" s="619"/>
+      <c r="C5" s="619"/>
+      <c r="D5" s="600"/>
+      <c r="E5" s="600"/>
+      <c r="F5" s="600"/>
+      <c r="G5" s="598"/>
+      <c r="H5" s="598"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="598"/>
+      <c r="K5" s="582"/>
+      <c r="L5" s="582"/>
+      <c r="M5" s="584"/>
+      <c r="N5" s="584"/>
+      <c r="O5" s="584"/>
+      <c r="P5" s="596"/>
+      <c r="Q5" s="596"/>
+      <c r="R5" s="591"/>
+      <c r="S5" s="591"/>
+      <c r="T5" s="604"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="581"/>
-      <c r="X5" s="581"/>
-      <c r="Y5" s="573"/>
-      <c r="Z5" s="573"/>
+      <c r="W5" s="585"/>
+      <c r="X5" s="585"/>
+      <c r="Y5" s="606"/>
+      <c r="Z5" s="606"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="575"/>
-      <c r="AD5" s="575"/>
+      <c r="AC5" s="608"/>
+      <c r="AD5" s="608"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="561"/>
-      <c r="AH5" s="561"/>
-      <c r="AI5" s="561"/>
+      <c r="AG5" s="600"/>
+      <c r="AH5" s="600"/>
+      <c r="AI5" s="600"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -64900,26 +64906,14 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -64936,14 +64930,26 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -64996,7 +65002,7 @@
     </row>
     <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="600" t="s">
+      <c r="B2" s="622" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="72" t="s">
@@ -65009,7 +65015,7 @@
     </row>
     <row r="3" spans="1:8" s="65" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A3" s="64"/>
-      <c r="B3" s="601"/>
+      <c r="B3" s="623"/>
       <c r="C3" s="72" t="s">
         <v>145</v>
       </c>
@@ -65020,7 +65026,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
-      <c r="B4" s="596" t="s">
+      <c r="B4" s="627" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="71" t="s">
@@ -65033,7 +65039,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
-      <c r="B5" s="597"/>
+      <c r="B5" s="629"/>
       <c r="C5" s="71" t="s">
         <v>141</v>
       </c>
@@ -65044,7 +65050,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
-      <c r="B6" s="597"/>
+      <c r="B6" s="629"/>
       <c r="C6" s="71" t="s">
         <v>140</v>
       </c>
@@ -65055,7 +65061,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
-      <c r="B7" s="597"/>
+      <c r="B7" s="629"/>
       <c r="C7" s="71" t="s">
         <v>142</v>
       </c>
@@ -65066,7 +65072,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
-      <c r="B8" s="598"/>
+      <c r="B8" s="628"/>
       <c r="C8" s="71" t="s">
         <v>146</v>
       </c>
@@ -65077,7 +65083,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
-      <c r="B9" s="596" t="s">
+      <c r="B9" s="627" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -65090,8 +65096,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
-      <c r="B10" s="597"/>
-      <c r="C10" s="596" t="s">
+      <c r="B10" s="629"/>
+      <c r="C10" s="627" t="s">
         <v>147</v>
       </c>
       <c r="D10" s="70" t="s">
@@ -65103,8 +65109,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
-      <c r="B11" s="597"/>
-      <c r="C11" s="598"/>
+      <c r="B11" s="629"/>
+      <c r="C11" s="628"/>
       <c r="D11" s="70" t="s">
         <v>149</v>
       </c>
@@ -65114,8 +65120,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
-      <c r="B12" s="597"/>
-      <c r="C12" s="596" t="s">
+      <c r="B12" s="629"/>
+      <c r="C12" s="627" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="162" t="s">
@@ -65129,9 +65135,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
-      <c r="B13" s="597"/>
-      <c r="C13" s="597"/>
-      <c r="D13" s="596" t="s">
+      <c r="B13" s="629"/>
+      <c r="C13" s="629"/>
+      <c r="D13" s="627" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="66" t="s">
@@ -65142,9 +65148,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
-      <c r="B14" s="597"/>
-      <c r="C14" s="597"/>
-      <c r="D14" s="597"/>
+      <c r="B14" s="629"/>
+      <c r="C14" s="629"/>
+      <c r="D14" s="629"/>
       <c r="E14" s="66" t="s">
         <v>120</v>
       </c>
@@ -65153,9 +65159,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
-      <c r="B15" s="597"/>
-      <c r="C15" s="597"/>
-      <c r="D15" s="597"/>
+      <c r="B15" s="629"/>
+      <c r="C15" s="629"/>
+      <c r="D15" s="629"/>
       <c r="E15" s="66" t="s">
         <v>121</v>
       </c>
@@ -65164,9 +65170,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
-      <c r="B16" s="597"/>
-      <c r="C16" s="597"/>
-      <c r="D16" s="597"/>
+      <c r="B16" s="629"/>
+      <c r="C16" s="629"/>
+      <c r="D16" s="629"/>
       <c r="E16" s="66" t="s">
         <v>122</v>
       </c>
@@ -65175,9 +65181,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
-      <c r="B17" s="597"/>
-      <c r="C17" s="597"/>
-      <c r="D17" s="598"/>
+      <c r="B17" s="629"/>
+      <c r="C17" s="629"/>
+      <c r="D17" s="628"/>
       <c r="E17" s="66" t="s">
         <v>123</v>
       </c>
@@ -65186,8 +65192,8 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
-      <c r="B18" s="597"/>
-      <c r="C18" s="597"/>
+      <c r="B18" s="629"/>
+      <c r="C18" s="629"/>
       <c r="D18" s="70" t="s">
         <v>117</v>
       </c>
@@ -65199,9 +65205,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
-      <c r="B19" s="597"/>
-      <c r="C19" s="597"/>
-      <c r="D19" s="596" t="s">
+      <c r="B19" s="629"/>
+      <c r="C19" s="629"/>
+      <c r="D19" s="627" t="s">
         <v>118</v>
       </c>
       <c r="E19" s="66" t="s">
@@ -65212,9 +65218,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
-      <c r="B20" s="597"/>
-      <c r="C20" s="598"/>
-      <c r="D20" s="598"/>
+      <c r="B20" s="629"/>
+      <c r="C20" s="628"/>
+      <c r="D20" s="628"/>
       <c r="E20" s="66" t="s">
         <v>123</v>
       </c>
@@ -65223,11 +65229,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
-      <c r="B21" s="597"/>
-      <c r="C21" s="596" t="s">
+      <c r="B21" s="629"/>
+      <c r="C21" s="627" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="596" t="s">
+      <c r="D21" s="627" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="66" t="s">
@@ -65238,9 +65244,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
-      <c r="B22" s="597"/>
-      <c r="C22" s="597"/>
-      <c r="D22" s="598"/>
+      <c r="B22" s="629"/>
+      <c r="C22" s="629"/>
+      <c r="D22" s="628"/>
       <c r="E22" s="66" t="s">
         <v>128</v>
       </c>
@@ -65249,9 +65255,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
-      <c r="B23" s="597"/>
-      <c r="C23" s="597"/>
-      <c r="D23" s="596" t="s">
+      <c r="B23" s="629"/>
+      <c r="C23" s="629"/>
+      <c r="D23" s="627" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="66" t="s">
@@ -65262,9 +65268,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
-      <c r="B24" s="597"/>
-      <c r="C24" s="597"/>
-      <c r="D24" s="597"/>
+      <c r="B24" s="629"/>
+      <c r="C24" s="629"/>
+      <c r="D24" s="629"/>
       <c r="E24" s="66" t="s">
         <v>130</v>
       </c>
@@ -65273,9 +65279,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
-      <c r="B25" s="597"/>
-      <c r="C25" s="597"/>
-      <c r="D25" s="598"/>
+      <c r="B25" s="629"/>
+      <c r="C25" s="629"/>
+      <c r="D25" s="628"/>
       <c r="E25" s="66" t="s">
         <v>131</v>
       </c>
@@ -65284,8 +65290,8 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
-      <c r="B26" s="597"/>
-      <c r="C26" s="598"/>
+      <c r="B26" s="629"/>
+      <c r="C26" s="628"/>
       <c r="D26" s="70" t="s">
         <v>116</v>
       </c>
@@ -65297,8 +65303,8 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
-      <c r="B27" s="597"/>
-      <c r="C27" s="602" t="s">
+      <c r="B27" s="629"/>
+      <c r="C27" s="624" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="162" t="s">
@@ -65313,8 +65319,8 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
-      <c r="B28" s="597"/>
-      <c r="C28" s="603"/>
+      <c r="B28" s="629"/>
+      <c r="C28" s="625"/>
       <c r="D28" s="162" t="s">
         <v>134</v>
       </c>
@@ -65327,8 +65333,8 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="66"/>
-      <c r="B29" s="597"/>
-      <c r="C29" s="604"/>
+      <c r="B29" s="629"/>
+      <c r="C29" s="626"/>
       <c r="D29" s="162" t="s">
         <v>135</v>
       </c>
@@ -65341,7 +65347,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
-      <c r="B30" s="597"/>
+      <c r="B30" s="629"/>
       <c r="C30" s="70" t="s">
         <v>74</v>
       </c>
@@ -65352,7 +65358,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="66"/>
-      <c r="B31" s="597"/>
+      <c r="B31" s="629"/>
       <c r="C31" s="67" t="s">
         <v>95</v>
       </c>
@@ -65363,7 +65369,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="66"/>
-      <c r="B32" s="597"/>
+      <c r="B32" s="629"/>
       <c r="C32" s="70" t="s">
         <v>96</v>
       </c>
@@ -65374,8 +65380,8 @@
     </row>
     <row r="33" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="66"/>
-      <c r="B33" s="597"/>
-      <c r="C33" s="596" t="s">
+      <c r="B33" s="629"/>
+      <c r="C33" s="627" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="70" t="s">
@@ -65387,8 +65393,8 @@
     </row>
     <row r="34" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="66"/>
-      <c r="B34" s="597"/>
-      <c r="C34" s="598"/>
+      <c r="B34" s="629"/>
+      <c r="C34" s="628"/>
       <c r="D34" s="70" t="s">
         <v>152</v>
       </c>
@@ -65398,7 +65404,7 @@
     </row>
     <row r="35" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="66"/>
-      <c r="B35" s="598"/>
+      <c r="B35" s="628"/>
       <c r="C35" s="70" t="s">
         <v>98</v>
       </c>
@@ -65412,7 +65418,7 @@
     </row>
     <row r="36" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A36" s="66"/>
-      <c r="B36" s="596" t="s">
+      <c r="B36" s="627" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="67" t="s">
@@ -65425,7 +65431,7 @@
     </row>
     <row r="37" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A37" s="66"/>
-      <c r="B37" s="597"/>
+      <c r="B37" s="629"/>
       <c r="C37" s="70" t="s">
         <v>99</v>
       </c>
@@ -65436,7 +65442,7 @@
     </row>
     <row r="38" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A38" s="66"/>
-      <c r="B38" s="597"/>
+      <c r="B38" s="629"/>
       <c r="C38" s="70" t="s">
         <v>100</v>
       </c>
@@ -65447,7 +65453,7 @@
     </row>
     <row r="39" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A39" s="66"/>
-      <c r="B39" s="598"/>
+      <c r="B39" s="628"/>
       <c r="C39" s="70" t="s">
         <v>101</v>
       </c>
@@ -65461,7 +65467,7 @@
     </row>
     <row r="40" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A40" s="66"/>
-      <c r="B40" s="596" t="s">
+      <c r="B40" s="627" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="67" t="s">
@@ -65474,8 +65480,8 @@
     </row>
     <row r="41" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A41" s="66"/>
-      <c r="B41" s="597"/>
-      <c r="C41" s="596" t="s">
+      <c r="B41" s="629"/>
+      <c r="C41" s="627" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="70" t="s">
@@ -65487,8 +65493,8 @@
     </row>
     <row r="42" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A42" s="66"/>
-      <c r="B42" s="597"/>
-      <c r="C42" s="598"/>
+      <c r="B42" s="629"/>
+      <c r="C42" s="628"/>
       <c r="D42" s="70" t="s">
         <v>136</v>
       </c>
@@ -65498,7 +65504,7 @@
     </row>
     <row r="43" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A43" s="66"/>
-      <c r="B43" s="598"/>
+      <c r="B43" s="628"/>
       <c r="C43" s="70" t="s">
         <v>103</v>
       </c>
@@ -65509,7 +65515,7 @@
     </row>
     <row r="44" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="66"/>
-      <c r="B44" s="596" t="s">
+      <c r="B44" s="627" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="67" t="s">
@@ -65523,7 +65529,7 @@
     </row>
     <row r="45" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A45" s="66"/>
-      <c r="B45" s="597"/>
+      <c r="B45" s="629"/>
       <c r="C45" s="70" t="s">
         <v>104</v>
       </c>
@@ -65534,7 +65540,7 @@
     </row>
     <row r="46" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A46" s="66"/>
-      <c r="B46" s="597"/>
+      <c r="B46" s="629"/>
       <c r="C46" s="70" t="s">
         <v>105</v>
       </c>
@@ -65545,7 +65551,7 @@
     </row>
     <row r="47" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A47" s="66"/>
-      <c r="B47" s="597"/>
+      <c r="B47" s="629"/>
       <c r="C47" s="70" t="s">
         <v>106</v>
       </c>
@@ -65556,7 +65562,7 @@
     </row>
     <row r="48" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="66"/>
-      <c r="B48" s="598"/>
+      <c r="B48" s="628"/>
       <c r="C48" s="70" t="s">
         <v>107</v>
       </c>
@@ -65614,10 +65620,10 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="66"/>
       <c r="B53" s="73"/>
-      <c r="C53" s="596" t="s">
+      <c r="C53" s="627" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="596" t="s">
+      <c r="D53" s="627" t="s">
         <v>180</v>
       </c>
       <c r="E53" s="66" t="s">
@@ -65629,8 +65635,8 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="66"/>
       <c r="B54" s="73"/>
-      <c r="C54" s="597"/>
-      <c r="D54" s="597"/>
+      <c r="C54" s="629"/>
+      <c r="D54" s="629"/>
       <c r="E54" s="66" t="s">
         <v>184</v>
       </c>
@@ -65640,8 +65646,8 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="66"/>
       <c r="B55" s="73"/>
-      <c r="C55" s="597"/>
-      <c r="D55" s="598"/>
+      <c r="C55" s="629"/>
+      <c r="D55" s="628"/>
       <c r="E55" s="66" t="s">
         <v>185</v>
       </c>
@@ -65651,11 +65657,11 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="66"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="597"/>
-      <c r="D56" s="596" t="s">
+      <c r="C56" s="629"/>
+      <c r="D56" s="627" t="s">
         <v>181</v>
       </c>
-      <c r="E56" s="596" t="s">
+      <c r="E56" s="627" t="s">
         <v>186</v>
       </c>
       <c r="F56" s="66" t="s">
@@ -65666,9 +65672,9 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="66"/>
       <c r="B57" s="73"/>
-      <c r="C57" s="597"/>
-      <c r="D57" s="597"/>
-      <c r="E57" s="597"/>
+      <c r="C57" s="629"/>
+      <c r="D57" s="629"/>
+      <c r="E57" s="629"/>
       <c r="F57" s="66" t="s">
         <v>188</v>
       </c>
@@ -65677,9 +65683,9 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="66"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="597"/>
-      <c r="D58" s="597"/>
-      <c r="E58" s="598"/>
+      <c r="C58" s="629"/>
+      <c r="D58" s="629"/>
+      <c r="E58" s="628"/>
       <c r="F58" s="66" t="s">
         <v>185</v>
       </c>
@@ -65688,9 +65694,9 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="66"/>
       <c r="B59" s="73"/>
-      <c r="C59" s="597"/>
-      <c r="D59" s="597"/>
-      <c r="E59" s="596" t="s">
+      <c r="C59" s="629"/>
+      <c r="D59" s="629"/>
+      <c r="E59" s="627" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="66" t="s">
@@ -65701,9 +65707,9 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="66"/>
       <c r="B60" s="73"/>
-      <c r="C60" s="597"/>
-      <c r="D60" s="598"/>
-      <c r="E60" s="598"/>
+      <c r="C60" s="629"/>
+      <c r="D60" s="628"/>
+      <c r="E60" s="628"/>
       <c r="F60" s="66" t="s">
         <v>190</v>
       </c>
@@ -65712,8 +65718,8 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="66"/>
       <c r="B61" s="73"/>
-      <c r="C61" s="597"/>
-      <c r="D61" s="596" t="s">
+      <c r="C61" s="629"/>
+      <c r="D61" s="627" t="s">
         <v>182</v>
       </c>
       <c r="E61" s="66" t="s">
@@ -65725,8 +65731,8 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="66"/>
       <c r="B62" s="73"/>
-      <c r="C62" s="597"/>
-      <c r="D62" s="597"/>
+      <c r="C62" s="629"/>
+      <c r="D62" s="629"/>
       <c r="E62" s="66" t="s">
         <v>192</v>
       </c>
@@ -65736,8 +65742,8 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="66"/>
       <c r="B63" s="73"/>
-      <c r="C63" s="598"/>
-      <c r="D63" s="598"/>
+      <c r="C63" s="628"/>
+      <c r="D63" s="628"/>
       <c r="E63" s="66" t="s">
         <v>193</v>
       </c>
@@ -65750,7 +65756,7 @@
       <c r="C64" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="D64" s="596" t="s">
+      <c r="D64" s="627" t="s">
         <v>194</v>
       </c>
       <c r="E64" s="66" t="s">
@@ -65763,7 +65769,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="73"/>
       <c r="C65" s="70"/>
-      <c r="D65" s="598"/>
+      <c r="D65" s="628"/>
       <c r="E65" s="66" t="s">
         <v>196</v>
       </c>
@@ -65849,7 +65855,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="66"/>
-      <c r="B73" s="599" t="s">
+      <c r="B73" s="621" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="67" t="s">
@@ -65862,7 +65868,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="66"/>
-      <c r="B74" s="599"/>
+      <c r="B74" s="621"/>
       <c r="C74" s="70" t="s">
         <v>109</v>
       </c>
@@ -65873,7 +65879,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="66"/>
-      <c r="B75" s="599"/>
+      <c r="B75" s="621"/>
       <c r="C75" s="70" t="s">
         <v>110</v>
       </c>
@@ -65884,7 +65890,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="66"/>
-      <c r="B76" s="599"/>
+      <c r="B76" s="621"/>
       <c r="C76" s="70" t="s">
         <v>111</v>
       </c>
@@ -65895,7 +65901,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="66"/>
-      <c r="B77" s="599"/>
+      <c r="B77" s="621"/>
       <c r="C77" s="70" t="s">
         <v>112</v>
       </c>
@@ -65906,7 +65912,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="66"/>
-      <c r="B78" s="599"/>
+      <c r="B78" s="621"/>
       <c r="C78" s="70" t="s">
         <v>113</v>
       </c>
@@ -65917,7 +65923,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="66"/>
-      <c r="B79" s="599"/>
+      <c r="B79" s="621"/>
       <c r="C79" s="70" t="s">
         <v>114</v>
       </c>
@@ -65928,7 +65934,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="66"/>
-      <c r="B80" s="599"/>
+      <c r="B80" s="621"/>
       <c r="C80" s="70" t="s">
         <v>115</v>
       </c>
@@ -65950,6 +65956,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C21:C26"/>
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C27:C29"/>
@@ -65962,18 +65980,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C53:C63"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D56:D60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -66265,7 +66271,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="650" t="s">
+      <c r="A2" s="534" t="s">
         <v>862</v>
       </c>
       <c r="B2" s="307"/>
@@ -66281,7 +66287,7 @@
       <c r="L2" s="308"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="649" t="s">
+      <c r="A3" s="533" t="s">
         <v>522</v>
       </c>
       <c r="B3" s="79"/>
@@ -66297,7 +66303,7 @@
       <c r="L3" s="105"/>
     </row>
     <row r="4" spans="1:14" s="153" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="647" t="s">
+      <c r="A4" s="531" t="s">
         <v>910</v>
       </c>
       <c r="B4" s="154" t="s">
@@ -66319,7 +66325,7 @@
       <c r="L4" s="105"/>
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="649" t="s">
+      <c r="A5" s="533" t="s">
         <v>865</v>
       </c>
       <c r="B5" s="79"/>
@@ -66335,7 +66341,7 @@
       <c r="L5" s="105"/>
     </row>
     <row r="6" spans="1:14" s="160" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="647" t="s">
+      <c r="A6" s="531" t="s">
         <v>911</v>
       </c>
       <c r="B6" s="156" t="s">
@@ -66357,7 +66363,7 @@
       <c r="L6" s="105"/>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="647" t="s">
+      <c r="A7" s="531" t="s">
         <v>912</v>
       </c>
       <c r="B7" s="159" t="s">
@@ -66381,7 +66387,7 @@
       <c r="N7" s="77"/>
     </row>
     <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="647" t="s">
+      <c r="A8" s="531" t="s">
         <v>913</v>
       </c>
       <c r="B8" s="159" t="s">
@@ -66405,7 +66411,7 @@
       <c r="N8" s="77"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="649" t="s">
+      <c r="A9" s="533" t="s">
         <v>872</v>
       </c>
       <c r="B9" s="79"/>
@@ -66421,7 +66427,7 @@
       <c r="L9" s="105"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="647" t="s">
+      <c r="A10" s="531" t="s">
         <v>914</v>
       </c>
       <c r="B10" s="159" t="s">
@@ -66445,7 +66451,7 @@
       <c r="N10" s="77"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="647" t="s">
+      <c r="A11" s="531" t="s">
         <v>915</v>
       </c>
       <c r="B11" s="159" t="s">
@@ -66469,7 +66475,7 @@
       <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="647" t="s">
+      <c r="A12" s="531" t="s">
         <v>916</v>
       </c>
       <c r="B12" s="159" t="s">
@@ -66493,7 +66499,7 @@
       <c r="N12" s="77"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="647" t="s">
+      <c r="A13" s="531" t="s">
         <v>917</v>
       </c>
       <c r="B13" s="159" t="s">
@@ -66517,7 +66523,7 @@
       <c r="N13" s="77"/>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="649" t="s">
+      <c r="A14" s="533" t="s">
         <v>878</v>
       </c>
       <c r="B14" s="79"/>
@@ -66533,7 +66539,7 @@
       <c r="L14" s="105"/>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="647" t="s">
+      <c r="A15" s="531" t="s">
         <v>918</v>
       </c>
       <c r="B15" s="159" t="s">
@@ -66557,7 +66563,7 @@
       <c r="N15" s="77"/>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="647" t="s">
+      <c r="A16" s="531" t="s">
         <v>919</v>
       </c>
       <c r="B16" s="159" t="s">
@@ -66581,7 +66587,7 @@
       <c r="N16" s="77"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="647" t="s">
+      <c r="A17" s="531" t="s">
         <v>920</v>
       </c>
       <c r="B17" s="159" t="s">
@@ -66605,7 +66611,7 @@
       <c r="N17" s="164"/>
     </row>
     <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="647" t="s">
+      <c r="A18" s="531" t="s">
         <v>921</v>
       </c>
       <c r="B18" s="159" t="s">
@@ -66629,7 +66635,7 @@
       <c r="N18" s="164"/>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="647" t="s">
+      <c r="A19" s="531" t="s">
         <v>922</v>
       </c>
       <c r="B19" s="159" t="s">
@@ -66653,7 +66659,7 @@
       <c r="N19" s="164"/>
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="647" t="s">
+      <c r="A20" s="531" t="s">
         <v>923</v>
       </c>
       <c r="B20" s="159" t="s">
@@ -66677,7 +66683,7 @@
       <c r="N20" s="164"/>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="647" t="s">
+      <c r="A21" s="531" t="s">
         <v>924</v>
       </c>
       <c r="B21" s="159" t="s">
@@ -66701,7 +66707,7 @@
       <c r="N21" s="164"/>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="649" t="s">
+      <c r="A22" s="533" t="s">
         <v>887</v>
       </c>
       <c r="B22" s="79"/>
@@ -66717,7 +66723,7 @@
       <c r="L22" s="105"/>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="647" t="s">
+      <c r="A23" s="531" t="s">
         <v>925</v>
       </c>
       <c r="B23" s="77" t="s">
@@ -66741,7 +66747,7 @@
       <c r="N23" s="77"/>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="647" t="s">
+      <c r="A24" s="531" t="s">
         <v>926</v>
       </c>
       <c r="B24" s="78" t="s">
@@ -66765,7 +66771,7 @@
       <c r="N24" s="77"/>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="647" t="s">
+      <c r="A25" s="531" t="s">
         <v>927</v>
       </c>
       <c r="B25" s="78" t="s">
@@ -66789,7 +66795,7 @@
       <c r="N25" s="77"/>
     </row>
     <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="647" t="s">
+      <c r="A26" s="531" t="s">
         <v>928</v>
       </c>
       <c r="B26" s="78" t="s">
@@ -66813,7 +66819,7 @@
       <c r="N26" s="77"/>
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="648" t="s">
+      <c r="A27" s="532" t="s">
         <v>929</v>
       </c>
       <c r="B27" s="311" t="s">
@@ -66837,7 +66843,7 @@
       <c r="N27" s="313"/>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="647" t="s">
+      <c r="A28" s="531" t="s">
         <v>930</v>
       </c>
       <c r="B28" s="78" t="s">
@@ -66861,7 +66867,7 @@
       <c r="N28" s="77"/>
     </row>
     <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="647" t="s">
+      <c r="A29" s="531" t="s">
         <v>931</v>
       </c>
       <c r="B29" s="78" t="s">
@@ -66885,7 +66891,7 @@
       <c r="N29" s="77"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="649" t="s">
+      <c r="A30" s="533" t="s">
         <v>524</v>
       </c>
       <c r="B30" s="79"/>
@@ -66901,7 +66907,7 @@
       <c r="L30" s="105"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="647" t="s">
+      <c r="A31" s="531" t="s">
         <v>932</v>
       </c>
       <c r="B31" s="78" t="s">
@@ -66925,7 +66931,7 @@
       <c r="N31" s="77"/>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="647" t="s">
+      <c r="A32" s="531" t="s">
         <v>933</v>
       </c>
       <c r="B32" s="78" t="s">
@@ -66949,7 +66955,7 @@
       <c r="N32" s="77"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="649" t="s">
+      <c r="A33" s="533" t="s">
         <v>525</v>
       </c>
       <c r="B33" s="79"/>
@@ -66965,7 +66971,7 @@
       <c r="L33" s="111"/>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="647" t="s">
+      <c r="A34" s="531" t="s">
         <v>934</v>
       </c>
       <c r="B34" s="78" t="s">
@@ -66989,7 +66995,7 @@
       <c r="N34" s="77"/>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="647" t="s">
+      <c r="A35" s="531" t="s">
         <v>935</v>
       </c>
       <c r="B35" s="78" t="s">
@@ -67013,7 +67019,7 @@
       <c r="N35" s="77"/>
     </row>
     <row r="36" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="649" t="s">
+      <c r="A36" s="533" t="s">
         <v>526</v>
       </c>
       <c r="B36" s="79"/>
@@ -67029,7 +67035,7 @@
       <c r="L36" s="111"/>
     </row>
     <row r="37" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="647" t="s">
+      <c r="A37" s="531" t="s">
         <v>936</v>
       </c>
       <c r="B37" s="78" t="s">
@@ -67053,7 +67059,7 @@
       <c r="N37" s="77"/>
     </row>
     <row r="38" spans="1:14" s="321" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="647" t="s">
+      <c r="A38" s="531" t="s">
         <v>937</v>
       </c>
       <c r="B38" s="316" t="s">
@@ -67077,7 +67083,7 @@
       <c r="N38" s="317"/>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="647" t="s">
+      <c r="A39" s="531" t="s">
         <v>938</v>
       </c>
       <c r="B39" s="78" t="s">
@@ -67101,7 +67107,7 @@
       <c r="N39" s="77"/>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="647" t="s">
+      <c r="A40" s="531" t="s">
         <v>939</v>
       </c>
       <c r="B40" s="78" t="s">
@@ -67125,7 +67131,7 @@
       <c r="N40" s="77"/>
     </row>
     <row r="41" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="647" t="s">
+      <c r="A41" s="531" t="s">
         <v>940</v>
       </c>
       <c r="B41" s="155" t="s">
@@ -67149,7 +67155,7 @@
       <c r="N41" s="77"/>
     </row>
     <row r="42" spans="1:14" s="321" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="647" t="s">
+      <c r="A42" s="531" t="s">
         <v>941</v>
       </c>
       <c r="B42" s="316" t="s">
@@ -67173,7 +67179,7 @@
       <c r="N42" s="317"/>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="647" t="s">
+      <c r="A43" s="531" t="s">
         <v>942</v>
       </c>
       <c r="B43" s="155" t="s">
@@ -67197,7 +67203,7 @@
       <c r="N43" s="77"/>
     </row>
     <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="647" t="s">
+      <c r="A44" s="531" t="s">
         <v>943</v>
       </c>
       <c r="B44" s="155" t="s">
@@ -67221,7 +67227,7 @@
       <c r="N44" s="77"/>
     </row>
     <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="647" t="s">
+      <c r="A45" s="531" t="s">
         <v>944</v>
       </c>
       <c r="B45" s="155" t="s">
@@ -67245,7 +67251,7 @@
       <c r="N45" s="77"/>
     </row>
     <row r="46" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="647" t="s">
+      <c r="A46" s="531" t="s">
         <v>945</v>
       </c>
       <c r="B46" s="155" t="s">
@@ -67269,7 +67275,7 @@
       <c r="N46" s="77"/>
     </row>
     <row r="47" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="647" t="s">
+      <c r="A47" s="531" t="s">
         <v>946</v>
       </c>
       <c r="B47" s="155" t="s">
@@ -67293,7 +67299,7 @@
       <c r="N47" s="77"/>
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="647" t="s">
+      <c r="A48" s="531" t="s">
         <v>947</v>
       </c>
       <c r="B48" s="155" t="s">
@@ -67317,7 +67323,7 @@
       <c r="N48" s="77"/>
     </row>
     <row r="49" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="647" t="s">
+      <c r="A49" s="531" t="s">
         <v>948</v>
       </c>
       <c r="B49" s="155" t="s">
@@ -67341,7 +67347,7 @@
       <c r="N49" s="77"/>
     </row>
     <row r="50" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="647" t="s">
+      <c r="A50" s="531" t="s">
         <v>949</v>
       </c>
       <c r="B50" s="155" t="s">
@@ -67365,7 +67371,7 @@
       <c r="N50" s="77"/>
     </row>
     <row r="51" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="647" t="s">
+      <c r="A51" s="531" t="s">
         <v>950</v>
       </c>
       <c r="B51" s="175" t="s">
@@ -67389,7 +67395,7 @@
       <c r="N51" s="77"/>
     </row>
     <row r="52" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="647" t="s">
+      <c r="A52" s="531" t="s">
         <v>951</v>
       </c>
       <c r="B52" s="155" t="s">
@@ -67413,7 +67419,7 @@
       <c r="N52" s="77"/>
     </row>
     <row r="53" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="647" t="s">
+      <c r="A53" s="531" t="s">
         <v>952</v>
       </c>
       <c r="B53" s="155" t="s">
@@ -67437,7 +67443,7 @@
       <c r="N53" s="77"/>
     </row>
     <row r="54" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="647" t="s">
+      <c r="A54" s="531" t="s">
         <v>953</v>
       </c>
       <c r="B54" s="155" t="s">
@@ -67461,7 +67467,7 @@
       <c r="N54" s="77"/>
     </row>
     <row r="55" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="647" t="s">
+      <c r="A55" s="531" t="s">
         <v>954</v>
       </c>
       <c r="B55" s="155" t="s">
@@ -67485,7 +67491,7 @@
       <c r="N55" s="77"/>
     </row>
     <row r="56" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="647" t="s">
+      <c r="A56" s="531" t="s">
         <v>955</v>
       </c>
       <c r="B56" s="155" t="s">
@@ -67509,7 +67515,7 @@
       <c r="N56" s="77"/>
     </row>
     <row r="57" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="647" t="s">
+      <c r="A57" s="531" t="s">
         <v>956</v>
       </c>
       <c r="B57" s="155" t="s">
@@ -67535,7 +67541,7 @@
       <c r="N57" s="77"/>
     </row>
     <row r="58" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="647" t="s">
+      <c r="A58" s="531" t="s">
         <v>957</v>
       </c>
       <c r="B58" s="155" t="s">
@@ -67559,7 +67565,7 @@
       <c r="N58" s="77"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="647" t="s">
+      <c r="A59" s="531" t="s">
         <v>958</v>
       </c>
       <c r="B59" s="155" t="s">
@@ -67583,7 +67589,7 @@
       <c r="N59" s="77"/>
     </row>
     <row r="60" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="649" t="s">
+      <c r="A60" s="533" t="s">
         <v>527</v>
       </c>
       <c r="B60" s="79"/>
@@ -67601,7 +67607,7 @@
       <c r="N60" s="77"/>
     </row>
     <row r="61" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="647" t="s">
+      <c r="A61" s="531" t="s">
         <v>959</v>
       </c>
       <c r="B61" s="78" t="s">
@@ -67625,7 +67631,7 @@
       <c r="N61" s="77"/>
     </row>
     <row r="62" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="647" t="s">
+      <c r="A62" s="531" t="s">
         <v>960</v>
       </c>
       <c r="B62" s="78" t="s">
@@ -67649,7 +67655,7 @@
       <c r="N62" s="77"/>
     </row>
     <row r="63" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="647" t="s">
+      <c r="A63" s="531" t="s">
         <v>961</v>
       </c>
       <c r="B63" s="77" t="s">
@@ -67673,7 +67679,7 @@
       <c r="N63" s="77"/>
     </row>
     <row r="64" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="647" t="s">
+      <c r="A64" s="531" t="s">
         <v>962</v>
       </c>
       <c r="B64" s="78" t="s">
@@ -67697,8 +67703,8 @@
       <c r="N64" s="77"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A65" s="649" t="s">
-        <v>2108</v>
+      <c r="A65" s="533" t="s">
+        <v>2105</v>
       </c>
       <c r="B65" s="79"/>
       <c r="C65" s="77"/>
@@ -67713,125 +67719,125 @@
       <c r="L65" s="77"/>
       <c r="M65" s="77"/>
     </row>
-    <row r="66" spans="1:14" s="646" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" s="530" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
       <c r="A66" s="462" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="B66" s="506" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C66" s="506" t="s">
         <v>205</v>
       </c>
       <c r="D66" s="506" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E66" s="526"/>
+      <c r="F66" s="434"/>
+      <c r="G66" s="529"/>
+      <c r="H66" s="529"/>
+      <c r="I66" s="529"/>
+      <c r="J66" s="529"/>
+      <c r="K66" s="529"/>
+      <c r="L66" s="434"/>
+      <c r="M66" s="526"/>
+      <c r="N66" s="526"/>
+    </row>
+    <row r="67" spans="1:14" s="530" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+      <c r="A67" s="462" t="s">
         <v>2110</v>
       </c>
-      <c r="E66" s="642"/>
-      <c r="F66" s="434"/>
-      <c r="G66" s="645"/>
-      <c r="H66" s="645"/>
-      <c r="I66" s="645"/>
-      <c r="J66" s="645"/>
-      <c r="K66" s="645"/>
-      <c r="L66" s="434"/>
-      <c r="M66" s="642"/>
-      <c r="N66" s="642"/>
-    </row>
-    <row r="67" spans="1:14" s="646" customFormat="1" ht="102" x14ac:dyDescent="0.15">
-      <c r="A67" s="462" t="s">
-        <v>2113</v>
-      </c>
       <c r="B67" s="506" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="C67" s="506" t="s">
         <v>205</v>
       </c>
       <c r="D67" s="506" t="s">
-        <v>2116</v>
-      </c>
-      <c r="E67" s="642"/>
+        <v>2113</v>
+      </c>
+      <c r="E67" s="526"/>
       <c r="F67" s="434"/>
-      <c r="G67" s="645"/>
-      <c r="H67" s="645"/>
-      <c r="I67" s="645"/>
-      <c r="J67" s="645"/>
-      <c r="K67" s="645"/>
+      <c r="G67" s="529"/>
+      <c r="H67" s="529"/>
+      <c r="I67" s="529"/>
+      <c r="J67" s="529"/>
+      <c r="K67" s="529"/>
       <c r="L67" s="434"/>
-      <c r="M67" s="642"/>
-      <c r="N67" s="642"/>
-    </row>
-    <row r="68" spans="1:14" s="646" customFormat="1" ht="89.25" x14ac:dyDescent="0.15">
+      <c r="M67" s="526"/>
+      <c r="N67" s="526"/>
+    </row>
+    <row r="68" spans="1:14" s="530" customFormat="1" ht="89.25" x14ac:dyDescent="0.15">
       <c r="A68" s="462" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="B68" s="506" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="C68" s="506" t="s">
         <v>205</v>
       </c>
       <c r="D68" s="506" t="s">
-        <v>2122</v>
-      </c>
-      <c r="E68" s="642"/>
+        <v>2119</v>
+      </c>
+      <c r="E68" s="526"/>
       <c r="F68" s="434"/>
-      <c r="G68" s="645"/>
-      <c r="H68" s="645"/>
-      <c r="I68" s="645"/>
-      <c r="J68" s="645"/>
-      <c r="K68" s="645"/>
+      <c r="G68" s="529"/>
+      <c r="H68" s="529"/>
+      <c r="I68" s="529"/>
+      <c r="J68" s="529"/>
+      <c r="K68" s="529"/>
       <c r="L68" s="434"/>
-      <c r="M68" s="642"/>
-      <c r="N68" s="642"/>
-    </row>
-    <row r="69" spans="1:14" s="646" customFormat="1" ht="127.5" x14ac:dyDescent="0.15">
+      <c r="M68" s="526"/>
+      <c r="N68" s="526"/>
+    </row>
+    <row r="69" spans="1:14" s="530" customFormat="1" ht="127.5" x14ac:dyDescent="0.15">
       <c r="A69" s="462" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="B69" s="506" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="C69" s="506" t="s">
         <v>205</v>
       </c>
       <c r="D69" s="506" t="s">
-        <v>2121</v>
-      </c>
-      <c r="E69" s="642"/>
+        <v>2118</v>
+      </c>
+      <c r="E69" s="526"/>
       <c r="F69" s="434"/>
-      <c r="G69" s="645"/>
-      <c r="H69" s="645"/>
-      <c r="I69" s="645"/>
-      <c r="J69" s="645"/>
-      <c r="K69" s="645"/>
+      <c r="G69" s="529"/>
+      <c r="H69" s="529"/>
+      <c r="I69" s="529"/>
+      <c r="J69" s="529"/>
+      <c r="K69" s="529"/>
       <c r="L69" s="434"/>
-      <c r="M69" s="642"/>
-      <c r="N69" s="642"/>
-    </row>
-    <row r="70" spans="1:14" s="646" customFormat="1" ht="165.75" x14ac:dyDescent="0.15">
+      <c r="M69" s="526"/>
+      <c r="N69" s="526"/>
+    </row>
+    <row r="70" spans="1:14" s="530" customFormat="1" ht="165.75" x14ac:dyDescent="0.15">
       <c r="A70" s="462" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="B70" s="506" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="C70" s="506" t="s">
         <v>205</v>
       </c>
       <c r="D70" s="506" t="s">
-        <v>2123</v>
-      </c>
-      <c r="E70" s="642"/>
+        <v>2120</v>
+      </c>
+      <c r="E70" s="526"/>
       <c r="F70" s="434"/>
-      <c r="G70" s="645"/>
-      <c r="H70" s="645"/>
-      <c r="I70" s="645"/>
-      <c r="J70" s="645"/>
-      <c r="K70" s="645"/>
+      <c r="G70" s="529"/>
+      <c r="H70" s="529"/>
+      <c r="I70" s="529"/>
+      <c r="J70" s="529"/>
+      <c r="K70" s="529"/>
       <c r="L70" s="434"/>
-      <c r="M70" s="642"/>
-      <c r="N70" s="642"/>
+      <c r="M70" s="526"/>
+      <c r="N70" s="526"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -67843,8 +67849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -67918,8 +67924,8 @@
       <c r="L2" s="186"/>
     </row>
     <row r="3" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="626" t="s">
-        <v>2125</v>
+      <c r="A3" s="510" t="s">
+        <v>2122</v>
       </c>
       <c r="B3" s="176" t="s">
         <v>656</v>
@@ -67940,8 +67946,8 @@
       <c r="L3" s="186"/>
     </row>
     <row r="4" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="626" t="s">
-        <v>2126</v>
+      <c r="A4" s="510" t="s">
+        <v>2123</v>
       </c>
       <c r="B4" s="176" t="s">
         <v>654</v>
@@ -67978,8 +67984,8 @@
       <c r="L5" s="186"/>
     </row>
     <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="627" t="s">
-        <v>2127</v>
+      <c r="A6" s="511" t="s">
+        <v>2124</v>
       </c>
       <c r="B6" s="179" t="s">
         <v>658</v>
@@ -67999,8 +68005,8 @@
       <c r="K6" s="105"/>
     </row>
     <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="627" t="s">
-        <v>2128</v>
+      <c r="A7" s="511" t="s">
+        <v>2125</v>
       </c>
       <c r="B7" s="179" t="s">
         <v>663</v>
@@ -68020,16 +68026,16 @@
       <c r="K7" s="105"/>
     </row>
     <row r="8" spans="1:12" s="437" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="627" t="s">
-        <v>2129</v>
-      </c>
-      <c r="B8" s="629" t="s">
+      <c r="A8" s="511" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B8" s="513" t="s">
         <v>1989</v>
       </c>
-      <c r="C8" s="630" t="s">
+      <c r="C8" s="514" t="s">
         <v>2012</v>
       </c>
-      <c r="D8" s="631" t="s">
+      <c r="D8" s="515" t="s">
         <v>2013</v>
       </c>
       <c r="E8" s="318"/>
@@ -68041,16 +68047,16 @@
       <c r="K8" s="320"/>
     </row>
     <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="627" t="s">
-        <v>2130</v>
-      </c>
-      <c r="B9" s="629" t="s">
+      <c r="A9" s="511" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B9" s="513" t="s">
         <v>668</v>
       </c>
-      <c r="C9" s="630" t="s">
+      <c r="C9" s="514" t="s">
         <v>1993</v>
       </c>
-      <c r="D9" s="631" t="s">
+      <c r="D9" s="515" t="s">
         <v>669</v>
       </c>
       <c r="E9" s="318"/>
@@ -68062,16 +68068,16 @@
       <c r="K9" s="320"/>
     </row>
     <row r="10" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="627" t="s">
-        <v>2131</v>
-      </c>
-      <c r="B10" s="629" t="s">
+      <c r="A10" s="511" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B10" s="513" t="s">
         <v>670</v>
       </c>
-      <c r="C10" s="630" t="s">
+      <c r="C10" s="514" t="s">
         <v>1996</v>
       </c>
-      <c r="D10" s="631" t="s">
+      <c r="D10" s="515" t="s">
         <v>1997</v>
       </c>
       <c r="E10" s="318"/>
@@ -68083,58 +68089,58 @@
       <c r="K10" s="320"/>
     </row>
     <row r="11" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="627" t="s">
-        <v>2132</v>
-      </c>
-      <c r="B11" s="629" t="s">
+      <c r="A11" s="511" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B11" s="513" t="s">
         <v>665</v>
       </c>
-      <c r="C11" s="630" t="s">
+      <c r="C11" s="514" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="631" t="s">
+      <c r="D11" s="515" t="s">
         <v>666</v>
       </c>
       <c r="E11" s="318"/>
       <c r="F11" s="318"/>
-      <c r="G11" s="632"/>
-      <c r="H11" s="633"/>
-      <c r="I11" s="633"/>
-      <c r="J11" s="633"/>
+      <c r="G11" s="516"/>
+      <c r="H11" s="517"/>
+      <c r="I11" s="517"/>
+      <c r="J11" s="517"/>
       <c r="K11" s="320"/>
     </row>
     <row r="12" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="627" t="s">
-        <v>2133</v>
-      </c>
-      <c r="B12" s="629" t="s">
+      <c r="A12" s="511" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B12" s="513" t="s">
         <v>661</v>
       </c>
-      <c r="C12" s="630" t="s">
+      <c r="C12" s="514" t="s">
         <v>659</v>
       </c>
-      <c r="D12" s="631" t="s">
+      <c r="D12" s="515" t="s">
         <v>662</v>
       </c>
       <c r="E12" s="318"/>
       <c r="F12" s="318"/>
-      <c r="G12" s="632"/>
-      <c r="H12" s="633"/>
-      <c r="I12" s="633"/>
-      <c r="J12" s="633"/>
+      <c r="G12" s="516"/>
+      <c r="H12" s="517"/>
+      <c r="I12" s="517"/>
+      <c r="J12" s="517"/>
       <c r="K12" s="320"/>
     </row>
     <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="627" t="s">
-        <v>2134</v>
-      </c>
-      <c r="B13" s="629" t="s">
+      <c r="A13" s="511" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B13" s="513" t="s">
         <v>667</v>
       </c>
-      <c r="C13" s="630" t="s">
+      <c r="C13" s="514" t="s">
         <v>202</v>
       </c>
-      <c r="D13" s="634" t="s">
+      <c r="D13" s="518" t="s">
         <v>1990</v>
       </c>
       <c r="E13" s="318"/>
@@ -68146,16 +68152,16 @@
       <c r="K13" s="320"/>
     </row>
     <row r="14" spans="1:12" s="437" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="627" t="s">
-        <v>2135</v>
-      </c>
-      <c r="B14" s="629" t="s">
+      <c r="A14" s="511" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B14" s="513" t="s">
         <v>1991</v>
       </c>
-      <c r="C14" s="630" t="s">
+      <c r="C14" s="514" t="s">
         <v>1994</v>
       </c>
-      <c r="D14" s="631" t="s">
+      <c r="D14" s="515" t="s">
         <v>1995</v>
       </c>
       <c r="E14" s="318"/>
@@ -68181,18 +68187,18 @@
       <c r="J15" s="112"/>
       <c r="K15" s="105"/>
     </row>
-    <row r="16" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="628" t="s">
-        <v>2136</v>
-      </c>
-      <c r="B16" s="635" t="s">
+    <row r="16" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+      <c r="A16" s="512" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B16" s="519" t="s">
         <v>2095</v>
       </c>
       <c r="C16" s="435" t="s">
         <v>202</v>
       </c>
-      <c r="D16" s="636" t="s">
-        <v>2098</v>
+      <c r="D16" s="520" t="s">
+        <v>2137</v>
       </c>
       <c r="E16" s="436"/>
       <c r="F16" s="436"/>
@@ -68202,18 +68208,18 @@
       <c r="J16" s="436"/>
       <c r="K16" s="434"/>
     </row>
-    <row r="17" spans="1:11" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="628" t="s">
-        <v>2137</v>
-      </c>
-      <c r="B17" s="635" t="s">
+    <row r="17" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+      <c r="A17" s="512" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B17" s="519" t="s">
         <v>2096</v>
       </c>
       <c r="C17" s="435" t="s">
         <v>202</v>
       </c>
-      <c r="D17" s="636" t="s">
-        <v>2099</v>
+      <c r="D17" s="520" t="s">
+        <v>2138</v>
       </c>
       <c r="E17" s="436"/>
       <c r="F17" s="436"/>
@@ -68223,18 +68229,18 @@
       <c r="J17" s="436"/>
       <c r="K17" s="434"/>
     </row>
-    <row r="18" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="628" t="s">
-        <v>2138</v>
-      </c>
-      <c r="B18" s="635" t="s">
+    <row r="18" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="512" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B18" s="519" t="s">
         <v>2097</v>
       </c>
       <c r="C18" s="435" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="636" t="s">
-        <v>2100</v>
+      <c r="D18" s="520" t="s">
+        <v>2139</v>
       </c>
       <c r="E18" s="436"/>
       <c r="F18" s="436"/>
@@ -68244,18 +68250,18 @@
       <c r="J18" s="436"/>
       <c r="K18" s="434"/>
     </row>
-    <row r="19" spans="1:11" s="641" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A19" s="637" t="s">
-        <v>2139</v>
-      </c>
-      <c r="B19" s="638" t="s">
-        <v>2101</v>
+    <row r="19" spans="1:11" s="525" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A19" s="521" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B19" s="522" t="s">
+        <v>2098</v>
       </c>
       <c r="C19" s="435" t="s">
         <v>202</v>
       </c>
-      <c r="D19" s="639" t="s">
-        <v>2102</v>
+      <c r="D19" s="523" t="s">
+        <v>2099</v>
       </c>
       <c r="E19" s="507"/>
       <c r="F19" s="507"/>
@@ -68263,7 +68269,7 @@
       <c r="H19" s="507"/>
       <c r="I19" s="507"/>
       <c r="J19" s="507"/>
-      <c r="K19" s="640"/>
+      <c r="K19" s="524"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="189"/>
